--- a/data/Macroeconomic variables/Killian.xlsx
+++ b/data/Macroeconomic variables/Killian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Energy\Kilian Index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CMF\CMF_AHF\data\Macroeconomic variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F47D66A-1C09-46F7-A8C8-A6FBF57B9319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27D034D-AFCF-42EA-B9E4-C0F7BCFDCB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilian Index" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Killian</t>
   </si>
 </sst>
 </file>
@@ -525,48 +528,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,9 +585,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +625,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -880,21 +883,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="F657" sqref="F657"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>24838</v>
       </c>
@@ -902,7 +908,7 @@
         <v>-11.567902</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>24869</v>
       </c>
@@ -910,7 +916,7 @@
         <v>-8.2500985999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>24898</v>
       </c>
@@ -918,7 +924,7 @@
         <v>-10.089502</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24929</v>
       </c>
@@ -926,7 +932,7 @@
         <v>-10.218610999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>24959</v>
       </c>
@@ -934,7 +940,7 @@
         <v>-9.4885014999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>24990</v>
       </c>
@@ -942,7 +948,7 @@
         <v>-6.5428652999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25020</v>
       </c>
@@ -950,7 +956,7 @@
         <v>-11.175604</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25051</v>
       </c>
@@ -958,7 +964,7 @@
         <v>-14.808847</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25082</v>
       </c>
@@ -966,7 +972,7 @@
         <v>-14.043248</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25112</v>
       </c>
@@ -974,7 +980,7 @@
         <v>-18.975079000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25143</v>
       </c>
@@ -982,7 +988,7 @@
         <v>-7.7300218999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25173</v>
       </c>
@@ -990,7 +996,7 @@
         <v>-15.415125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25204</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>-17.780904</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>25235</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>-16.99363</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25263</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>-15.880354000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>25294</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>-21.726728000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25324</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>-26.625422</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25355</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>-17.658752</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>25385</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>-25.452497999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25416</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>-20.866159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25447</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>-13.311014999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25477</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>-5.5520756999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25508</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>0.13763716000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25538</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>4.7867068000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25569</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>26.313507999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25600</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>40.558464999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25628</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>54.636364999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25659</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>55.944246999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25689</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>57.486235999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>25720</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>52.981476999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25750</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>48.556407999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25781</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>54.472071999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>25812</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>59.792107000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25842</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>60.229529999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25873</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>55.084288999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25903</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>17.422096</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25934</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>8.6320286999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>25965</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>-15.322165999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25993</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>-17.077172000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>26024</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>-22.338417</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>26054</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>-29.068791000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>26085</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>-52.664059999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>26115</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>-58.885551999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>26146</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>-62.840994999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>26177</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>-49.406905000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>26207</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>-59.135717999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>26238</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>-42.902743000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>26268</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>-47.380648999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>26299</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>-59.380502999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>26330</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>-66.241029999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>26359</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>-68.818916000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>26390</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>-59.619985999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26420</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>-63.570099999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>26451</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>-66.315010000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>26481</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>-56.127104000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>26512</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>-62.495424</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>26543</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>-8.1552331999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26573</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>-5.2672901000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>26604</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>-4.1287922000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>26634</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>9.8676359999999992</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26665</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>21.338467000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>26696</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>30.078531999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>26724</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>39.190258</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>26755</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>43.586098</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>26785</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>50.858120999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>26816</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>58.312207999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>26846</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>59.774144999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>26877</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>70.289013999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>26908</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>81.713221000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>26938</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>107.63229</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>26969</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>104.65817</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>26999</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>114.65963000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>27030</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>106.18671000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>27061</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>89.242125000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>27089</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>98.823696999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>27120</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>86.844564000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>27150</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>104.59752</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>27181</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>82.924222</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>27211</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>62.617646999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>27242</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>59.248137999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>27273</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>60.992517999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>27303</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>62.142795999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>27334</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>59.553516999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>27364</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>22.386272000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>27395</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>-0.18233541</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>27426</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>-9.134074</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>27454</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>-25.941237000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>27485</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>-40.698998000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>27515</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>-43.368814</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>27546</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>-36.228107999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>27576</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>-41.216371000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>27607</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>-44.933177999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>27638</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>-33.728161</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>27668</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>-33.323577999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>27699</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>-23.430242</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>27729</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>-35.057057999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>27760</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>-45.366638000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>27791</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>-49.630415999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>27820</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>-31.905801</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>27851</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>-28.321705999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>27881</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>-18.732486000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>27912</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>-15.60886</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>27942</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>-20.923090999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>27973</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>-23.411898000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>28004</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>-24.149440999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>28034</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>-20.243224000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>28065</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>-18.818617</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>28095</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>-35.225304999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>28126</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>-48.61186</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>28157</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>-44.527531000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>28185</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>-44.870145999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>28216</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>-42.995969000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>28246</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>-35.253003999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>28277</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>-40.033270000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>28307</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>-43.834457</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>28338</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>-46.545718000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>28369</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>-46.710504999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>28399</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>-32.485937999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>28430</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>-32.971178000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>28460</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>-37.547832</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>28491</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>-38.025823000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>28522</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>-38.341138999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>28550</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>-38.812041999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>28581</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>-39.435580000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>28611</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>-22.338975999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>28642</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>-16.779813000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>28672</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>-25.388359000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>28703</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>-25.835177999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>28734</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>-13.574204</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>28764</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>-17.616489000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>28795</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>-3.5987903000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>28825</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>-6.6060343000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>28856</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>-15.889338</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>28887</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>-10.442742000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>28915</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>7.4525616000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>28946</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>9.4264203000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>28976</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>29.225595999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>29007</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>46.505544999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>29037</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>54.526833000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>29068</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>37.426577000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>29099</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>43.989989999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>29129</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>43.912351999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>29160</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>49.418339000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>29190</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>35.602139999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>29221</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>34.975650999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>29252</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>40.326568000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>29281</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>42.299567000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>29312</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>60.626947999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>29342</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>63.779603999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>29373</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>57.015033000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>29403</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>44.897843000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>29434</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>53.647201000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>29465</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>54.892468999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>29495</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>54.773426000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>29526</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>64.595247999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>29556</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>68.229277999999994</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>29587</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>63.916725999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>29618</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>61.723837000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>29646</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>50.197307000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>29677</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>45.842559000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>29707</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>35.769329999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>29738</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>41.020632999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>29768</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>32.667285999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>29799</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>15.069641000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>29830</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>12.991301999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>29860</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>15.520053000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>29891</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>14.548118000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>29921</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>7.5994032000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>29952</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>3.0190988000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>29983</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>-6.3265096999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>30011</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>2.8946833000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>30042</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>10.836548000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>30072</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>7.6853613999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>30103</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>-16.661536999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>30133</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>-40.965155000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>30164</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>-43.314366</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>30195</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>-27.514092999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>30225</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>-26.951702000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>30256</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>-24.362110000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>30286</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>-19.614764999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>30317</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>-17.589262999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>30348</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>-12.718586999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>30376</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>-9.8332113999999997</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>30407</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>-7.1489058999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>30437</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>-7.3591869000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>30468</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>-22.300656</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>30498</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>-33.560160000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>30529</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>-34.608457000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>30560</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>-31.595607000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>30590</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>-28.631587</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>30621</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>-21.258873000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>30651</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>-31.586061000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>30682</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>-29.724813999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>30713</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>-23.098932000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>30742</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>-18.854997000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>30773</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>-14.888132000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>30803</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>-15.52758</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>30834</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>-24.385275</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>30864</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>-29.279122000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>30895</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>-28.435065999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>30926</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>-25.296060000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>30956</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>-24.029</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>30987</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>-16.488468999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>31017</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>-19.651184000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>31048</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>-23.211275000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>31079</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>-27.545749000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>31107</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>-25.820411</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>31138</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>-20.841995000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>31168</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>-24.869211</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>31199</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>-34.378332999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>31229</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>-50.127737000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>31260</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>-57.591603999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>31291</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>-50.046469000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>31321</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>-36.980618999999997</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>31352</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>-36.164780999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>31382</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>-36.018447000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>31413</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>-37.776654000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>31444</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>-51.733964</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>31472</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>-55.380629999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>31503</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>-61.548371000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>31533</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>-66.389583999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>31564</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>-69.354785000000007</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>31594</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>-80.984712999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>31625</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>-78.325401999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>31656</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>-54.289873999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>31686</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>-48.846519000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>31717</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>-51.170670000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>31747</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>-60.165711999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>31778</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>-46.573711000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>31809</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>-41.850115000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>31837</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>-35.145958999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>31868</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>-25.253847</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>31898</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>-19.510297999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>31929</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>-30.802871</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>31959</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>-33.751620000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>31990</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>-18.873024000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>32021</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>-22.425162</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>32051</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>-17.428307</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>32082</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>-12.420973999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>32112</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>-5.2359644999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>32143</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>2.7750257</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>32174</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>14.018827999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>32203</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>19.108158</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>32234</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>11.562173</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>32264</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>5.1084136999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>32295</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>-5.2076406999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>32325</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>-11.570396000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>32356</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>-9.5076090999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>32387</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>-4.9639635999999996</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>32417</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>-2.0589555000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>32448</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>7.7133894999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>32478</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>11.180215</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>32509</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>17.642762000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>32540</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>12.075433</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>32568</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>17.392153</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>32599</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>16.820366</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>32629</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>21.372232</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>32660</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>2.9557414999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>32690</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>0.87349898999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>32721</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>2.2502447999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>32752</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>3.7220008</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>32782</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>10.424821</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>32813</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>17.962236000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>32843</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>14.371117999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>32874</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>16.297021000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>32905</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>12.85749</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>32933</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>12.300591000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>32964</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>2.4592944000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>32994</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>-6.4494496000000003</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>33025</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>-15.282925000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>33055</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>-25.269521000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>33086</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>-16.259111999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>33117</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>-18.861204000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>33147</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>-14.850482</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>33178</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>-9.8924439</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>33208</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>-0.62138937999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>33239</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>3.4171197E-4</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>33270</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>9.7508251000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>33298</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>17.685492</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>33329</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>10.227778000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>33359</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>14.057622</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>33390</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>16.236295999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>33420</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>7.7577046999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>33451</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>2.5910720999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>33482</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>5.6942235999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>33512</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>10.031231</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>33543</v>
       </c>
@@ -3190,7 +3196,7 @@
         <v>10.623756999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>33573</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>5.1782045999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>33604</v>
       </c>
@@ -3206,7 +3212,7 @@
         <v>2.2983479999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>33635</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>-11.061634</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>33664</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>-18.394286000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>33695</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>-22.215426999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>33725</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>-14.553329</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>33756</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>-22.563094</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>33786</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>-31.995228000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>33817</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>-31.952748</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>33848</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>-33.324351999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>33878</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>-32.735599999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>33909</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>-19.974260000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>33939</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>-8.1745920999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>33970</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>-12.801822</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>34001</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>-10.643423</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>34029</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>-2.5300227999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>34060</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>1.4962568999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>34090</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>7.5720226000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>34121</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>4.2292575000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>34151</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>-7.2589043000000002</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>34182</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>-6.5806981000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>34213</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>-4.4168310000000002</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>34243</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>-7.9679149999999996</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>34274</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>-13.551830000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>34304</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>-18.732527000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>34335</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>-19.221454000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>34366</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>-25.303148</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>34394</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>-25.934718</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>34425</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>-13.714534</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>34455</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>-0.81858058</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>34486</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>-10.153786</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>34516</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>-6.1786934999999996</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>34547</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>-0.93840498000000006</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>34578</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>2.7339593999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>34608</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>19.067893999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>34639</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>21.905517</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>34669</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>28.666447999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>34700</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>29.759346000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>34731</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>28.308268000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>34759</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>38.121957999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>34790</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>40.672122999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>34820</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>40.237321999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>34851</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>28.767990000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>34881</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>26.987939000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>34912</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>32.818745</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>34943</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>28.994962000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>34973</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>13.082174</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>35004</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>9.4340370999999994</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>35034</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>7.5123452999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>35065</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>2.4862668999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>35096</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>-5.1253501999999997</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>35125</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>-8.9040996000000003</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>35156</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>-4.1243935</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>35186</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>-6.9420191000000004</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>35217</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>-17.625546</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>35247</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>-30.559709999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>35278</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>-33.429020999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>35309</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>-38.878813000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>35339</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>-29.59064</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>35370</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>-5.1244546</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>35400</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>-2.6910262</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>35431</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>-4.3467618999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>35462</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>-6.0291319999999997</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>35490</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>-3.5912350000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>35521</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>-9.8776764999999997</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>35551</v>
       </c>
@@ -3718,7 +3724,7 @@
         <v>-17.316163</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>35582</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>-17.811813000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>35612</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>-12.645239</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>35643</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>-16.225435000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>35674</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>-16.080300000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>35704</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>-14.043865</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>35735</v>
       </c>
@@ -3766,7 +3772,7 @@
         <v>-20.802451999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>35765</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>-20.864077000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>35796</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>-27.436119000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>35827</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>-43.282048000000003</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>35855</v>
       </c>
@@ -3798,7 +3804,7 @@
         <v>-36.254595999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>35886</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>-43.182980999999998</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>35916</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>-43.572617999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>35947</v>
       </c>
@@ -3822,7 +3828,7 @@
         <v>-52.485193000000002</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>35977</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>-59.133977000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>36008</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>-64.098534000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>36039</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>-55.254855999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>36069</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>-43.253546999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>36100</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>-45.786968999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>36130</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>-57.990794999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>36161</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>-63.581546000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>36192</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>-59.392144999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>36220</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>-44.733843</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>36251</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>-49.785732000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>36281</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>-35.670149000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>36312</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>-42.723742999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>36342</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>-44.203299000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>36373</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>-37.456752999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>36404</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>-28.582353000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>36434</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>-13.034421</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>36465</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>-13.424828</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>36495</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>-12.827667</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>36526</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>-10.897978999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>36557</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>-9.5566525000000002</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>36586</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>5.1154922999999997</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>36617</v>
       </c>
@@ -3998,7 +4004,7 @@
         <v>8.1959458000000005</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>36647</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>4.2052942</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>36678</v>
       </c>
@@ -4014,7 +4020,7 @@
         <v>2.9700967</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>36708</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>4.6507617999999997</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>36739</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>6.1023212999999998</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>36770</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>10.102149000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>36800</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>11.368358000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>36831</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>10.663558</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>36861</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>3.8088576999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>36892</v>
       </c>
@@ -4070,7 +4076,7 @@
         <v>0.69093824999999998</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>36923</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>-5.0904232</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>36951</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>-3.4420769</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>36982</v>
       </c>
@@ -4094,7 +4100,7 @@
         <v>-7.7351909000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>37012</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>-7.4585999000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>37043</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>-12.549548</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>37073</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>-25.395498</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>37104</v>
       </c>
@@ -4126,7 +4132,7 @@
         <v>-46.067551999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>37135</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>-49.936117000000003</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>37165</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>-54.594455000000004</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>37196</v>
       </c>
@@ -4150,7 +4156,7 @@
         <v>-59.282981999999997</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>37226</v>
       </c>
@@ -4158,7 +4164,7 @@
         <v>-57.325442000000002</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>37257</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>-50.555790999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>37288</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>-47.495060000000002</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>37316</v>
       </c>
@@ -4182,7 +4188,7 @@
         <v>-37.233874999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>37347</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>-36.398581</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>37377</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>-40.519272999999998</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>37408</v>
       </c>
@@ -4206,7 +4212,7 @@
         <v>-44.16093</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>37438</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>-44.927391999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>37469</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>-43.635714999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>37500</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>-27.118779</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>37530</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>-12.783111</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>37561</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>-6.0583252999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>37591</v>
       </c>
@@ -4254,7 +4260,7 @@
         <v>7.1374440000000003</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>37622</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>8.5270820000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>37653</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>6.9552798999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>37681</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>16.950993</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>37712</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>28.440393</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>37742</v>
       </c>
@@ -4294,7 +4300,7 @@
         <v>36.546700999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>37773</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>32.247923</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>37803</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>34.670724999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>37834</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>38.597109000000003</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>37865</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>45.892099999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>37895</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>98.647803999999994</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>37926</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>100.82405</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>37956</v>
       </c>
@@ -4350,7 +4356,7 @@
         <v>108.82535</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>37987</v>
       </c>
@@ -4358,7 +4364,7 @@
         <v>121.17793</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>38018</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>125.26502000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>38047</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>119.18151</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>38078</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>105.81625</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>38108</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>83.371489999999994</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>38139</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>61.720050000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>38169</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>88.155703000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>38200</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>98.112988999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>38231</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>97.284487999999996</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>38261</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>106.09795</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>38292</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>121.45905</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>38322</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>125.50038000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>38353</v>
       </c>
@@ -4454,7 +4460,7 @@
         <v>105.34708000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>38384</v>
       </c>
@@ -4462,7 +4468,7 @@
         <v>105.75658</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>38412</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>108.72615999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>38443</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>105.4072</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>38473</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>84.441908999999995</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>38504</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>55.738612000000003</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>38534</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>33.910018999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>38565</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>32.870911</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>38596</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>55.606749999999998</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>38626</v>
       </c>
@@ -4526,7 +4532,7 @@
         <v>67.602115999999995</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>38657</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>60.200091</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>38687</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>48.891965999999996</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>38718</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>34.523842999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>38749</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>42.374358000000001</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>38777</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>48.535102000000002</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>38808</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>42.904116999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>38838</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>41.830177999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>38869</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>52.452005999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>38899</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>63.594931000000003</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>38930</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>82.281507000000005</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>38961</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>92.053804999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>38991</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>92.387874999999994</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>39022</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>96.443444999999997</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>39052</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>99.487532999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>39083</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>102.34824</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>39114</v>
       </c>
@@ -4654,7 +4660,7 @@
         <v>100.67843999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>39142</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>115.58082</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>39173</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>127.05871999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>39203</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>137.47980000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>39234</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>127.05123</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>39264</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>140.01528999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>39295</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>149.20329000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>39326</v>
       </c>
@@ -4710,7 +4716,7 @@
         <v>166.47725</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>39356</v>
       </c>
@@ -4718,7 +4724,7 @@
         <v>185.87864999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>39387</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>186.38337999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>39417</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>179.49753999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>39448</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>147.51820000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>39479</v>
       </c>
@@ -4750,7 +4756,7 @@
         <v>143.22277</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>39508</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>158.98157</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>39539</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>161.65263999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>39569</v>
       </c>
@@ -4774,7 +4780,7 @@
         <v>188.11704</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>39600</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>181.55446000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>39630</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>167.3347</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>39661</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>148.82539</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>39692</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>109.15594</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>39722</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>8.9610979000000004</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>39753</v>
       </c>
@@ -4822,7 +4828,7 @@
         <v>-68.279726999999994</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>39783</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>-77.029758999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>39814</v>
       </c>
@@ -4838,7 +4844,7 @@
         <v>-57.396614999999997</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>39845</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>12.047453000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>39873</v>
       </c>
@@ -4854,7 +4860,7 @@
         <v>19.836967999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>39904</v>
       </c>
@@ -4862,7 +4868,7 @@
         <v>3.3274686999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>39934</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>45.937345999999998</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>39965</v>
       </c>
@@ -4878,7 +4884,7 @@
         <v>86.159959000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>39995</v>
       </c>
@@ -4886,7 +4892,7 @@
         <v>73.501829000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>40026</v>
       </c>
@@ -4894,7 +4900,7 @@
         <v>50.844023999999997</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>40057</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>37.529136999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>40087</v>
       </c>
@@ -4910,7 +4916,7 @@
         <v>52.921858</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>40118</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>88.878489000000002</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>40148</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>79.157612999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>40179</v>
       </c>
@@ -4934,7 +4940,7 @@
         <v>67.252252999999996</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>40210</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>50.706465000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>40238</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>68.861912000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>40269</v>
       </c>
@@ -4958,7 +4964,7 @@
         <v>63.751716999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>40299</v>
       </c>
@@ -4966,7 +4972,7 @@
         <v>87.176472000000004</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>40330</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>65.637595000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>40360</v>
       </c>
@@ -4982,7 +4988,7 @@
         <v>17.570816000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>40391</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>41.747869999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>40422</v>
       </c>
@@ -4998,7 +5004,7 @@
         <v>52.903506999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>40452</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>51.757103000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>40483</v>
       </c>
@@ -5014,7 +5020,7 @@
         <v>36.800282000000003</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>40513</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>23.214455999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>40544</v>
       </c>
@@ -5030,7 +5036,7 @@
         <v>-14.081514</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>40575</v>
       </c>
@@ -5038,7 +5044,7 @@
         <v>-31.322907000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>40603</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>-8.2343188000000005</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>40634</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>-19.128779000000002</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>40664</v>
       </c>
@@ -5062,7 +5068,7 @@
         <v>-18.586946999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>40695</v>
       </c>
@@ -5070,7 +5076,7 @@
         <v>-12.619951</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>40725</v>
       </c>
@@ -5078,7 +5084,7 @@
         <v>-17.559132999999999</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>40756</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>-16.154893000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>40787</v>
       </c>
@@ -5094,7 +5100,7 @@
         <v>12.078327</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>40817</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>24.048598999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>40848</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>11.873284999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>40878</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>13.820365000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>40909</v>
       </c>
@@ -5126,7 +5132,7 @@
         <v>-44.957864999999998</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>40940</v>
       </c>
@@ -5134,7 +5140,7 @@
         <v>-84.165942999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>40969</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>-64.122944000000004</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>41000</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>-46.891098</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>41030</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>-38.907249</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>41061</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>-54.771495000000002</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>41091</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>-42.684232999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>41122</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>-75.929434000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>41153</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>-83.572716999999997</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>41183</v>
       </c>
@@ -5198,7 +5204,7 @@
         <v>-53.887996999999999</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>41214</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>-46.250768000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>41244</v>
       </c>
@@ -5214,7 +5220,7 @@
         <v>-64.095429999999993</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>41275</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>-74.606061999999994</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>41306</v>
       </c>
@@ -5230,7 +5236,7 @@
         <v>-78.369626999999994</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>41334</v>
       </c>
@@ -5238,7 +5244,7 @@
         <v>-61.709713999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>41365</v>
       </c>
@@ -5246,7 +5252,7 @@
         <v>-61.578673000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>41395</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>-64.080138000000005</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>41426</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>-54.200688</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>41456</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>-36.487886000000003</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>41487</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>-39.733432999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>41518</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v>3.8585769000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>41548</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>15.352385999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>41579</v>
       </c>
@@ -5302,7 +5308,7 @@
         <v>-3.5704465999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>41609</v>
       </c>
@@ -5310,7 +5316,7 @@
         <v>29.775604999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>41640</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>-9.4579214999999994</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>41671</v>
       </c>
@@ -5326,7 +5332,7 @@
         <v>-35.006250000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>41699</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>-8.6541625999999994</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>41730</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>-43.726961000000003</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>41760</v>
       </c>
@@ -5350,7 +5356,7 @@
         <v>-49.048921</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>41791</v>
       </c>
@@ -5358,7 +5364,7 @@
         <v>-57.418792000000003</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>41821</v>
       </c>
@@ -5366,7 +5372,7 @@
         <v>-70.980979000000005</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>41852</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>-54.429248999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>41883</v>
       </c>
@@ -5382,7 +5388,7 @@
         <v>-36.201788999999998</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>41913</v>
       </c>
@@ -5390,7 +5396,7 @@
         <v>-37.978127000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>41944</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>-18.566191</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>41974</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>-56.248472</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>42005</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>-78.105671999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>42036</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>-107.7945</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>42064</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>-101.34439</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>42095</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>-98.648636999999994</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>42125</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>-97.864953</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>42156</v>
       </c>
@@ -5454,7 +5460,7 @@
         <v>-82.199484999999996</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>42186</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>-48.888142000000002</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>42217</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>-39.880488</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>42248</v>
       </c>
@@ -5478,7 +5484,7 @@
         <v>-57.644176000000002</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>42278</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>-68.972667999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>42309</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>-99.824422999999996</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>42339</v>
       </c>
@@ -5502,7 +5508,7 @@
         <v>-111.02025</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>42370</v>
       </c>
@@ -5510,7 +5516,7 @@
         <v>-140.37344999999999</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>42401</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>-163.08606</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>42430</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>-141.00030000000001</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>42461</v>
       </c>
@@ -5534,7 +5540,7 @@
         <v>-95.179812999999996</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>42491</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>-93.229411999999996</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>42522</v>
       </c>
@@ -5550,7 +5556,7 @@
         <v>-95.305372000000006</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>42552</v>
       </c>
@@ -5558,7 +5564,7 @@
         <v>-79.924368999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>42583</v>
       </c>
@@ -5566,7 +5572,7 @@
         <v>-84.949752000000004</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>42614</v>
       </c>
@@ -5574,7 +5580,7 @@
         <v>-64.336878999999996</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>42644</v>
       </c>
@@ -5582,7 +5588,7 @@
         <v>-59.608708</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>42675</v>
       </c>
@@ -5590,7 +5596,7 @@
         <v>-38.527366999999998</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>42705</v>
       </c>
@@ -5598,7 +5604,7 @@
         <v>-40.718946000000003</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>42736</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>-55.540149</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>42767</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>-73.307822000000002</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>42795</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>-32.358204999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>42826</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>-25.509081999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>42856</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>-48.027327999999997</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>42887</v>
       </c>
@@ -5646,7 +5652,7 @@
         <v>-60.263885000000002</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>42917</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>-54.945109000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>42948</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>-32.042672000000003</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>42979</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>-14.640969999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>43009</v>
       </c>
@@ -5678,7 +5684,7 @@
         <v>-6.0742443000000002</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>43040</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>-8.2456475999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>43070</v>
       </c>
@@ -5694,7 +5700,7 @@
         <v>2.4450010999999998</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>43101</v>
       </c>
@@ -5702,7 +5708,7 @@
         <v>-24.260062000000001</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>43132</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>-34.307023000000001</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>43160</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>-31.621248000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>43191</v>
       </c>
@@ -5726,7 +5732,7 @@
         <v>-33.875548999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>43221</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>-20.402988000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>43252</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>-15.914077000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>43282</v>
       </c>
@@ -5750,7 +5756,7 @@
         <v>4.0853640000000002</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>43313</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>7.6498241</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>43344</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>-9.0827059000000006</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>43374</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>-2.6142318000000002</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>43405</v>
       </c>
@@ -5782,7 +5788,7 @@
         <v>-28.31025</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>43435</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>-16.776402999999998</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>43466</v>
       </c>
@@ -5798,7 +5804,7 @@
         <v>-39.365932999999998</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>43497</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>-91.938884999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>43525</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>-84.429275000000004</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>43556</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>-71.798045000000002</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>43586</v>
       </c>
@@ -5830,7 +5836,7 @@
         <v>-42.415165000000002</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>43617</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>-29.762294000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>43647</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>16.741036999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>43678</v>
       </c>
@@ -5854,7 +5860,7 @@
         <v>22.610880999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>43709</v>
       </c>
@@ -5862,7 +5868,7 @@
         <v>35.514601999999996</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>43739</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>14.298465</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>43770</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>-10.944601</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>43800</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>-13.681132</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>43831</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>-81.486754000000005</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>43862</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>-123.36127999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>43891</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>-96.353966999999997</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>43922</v>
       </c>
@@ -5918,7 +5924,7 @@
         <v>-85.417799000000002</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>43952</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>-115.78916</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>43983</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>-30.956254000000001</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>44013</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>4.1056831999999996</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>44044</v>
       </c>
@@ -5950,7 +5956,7 @@
         <v>-3.5669496999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>44075</v>
       </c>
@@ -5958,7 +5964,7 @@
         <v>-10.817318999999999</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>44105</v>
       </c>
@@ -5966,7 +5972,7 @@
         <v>3.7719144999999998</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>44136</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>-28.575593000000001</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>44166</v>
       </c>
@@ -5982,7 +5988,7 @@
         <v>-23.454639</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>44197</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>5.1925208999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>44228</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>-5.0962810999999997</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>44256</v>
       </c>
@@ -6006,7 +6012,7 @@
         <v>24.093239000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>44287</v>
       </c>
@@ -6014,7 +6020,7 @@
         <v>44.029580000000003</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>44317</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>61.555864999999997</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>44348</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>59.725332000000002</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>44378</v>
       </c>
@@ -6038,7 +6044,7 @@
         <v>67.805685999999994</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>44409</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>83.067644999999999</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>44440</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>97.029323000000005</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>44470</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>108.02394</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>44501</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>52.456856000000002</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>44531</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>53.898564999999998</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>44562</v>
       </c>
@@ -6086,7 +6092,7 @@
         <v>5.9074461999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>44593</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>9.3911803999999997</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>44621</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>37.794227999999997</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>44652</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>27.196971000000001</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>44682</v>
       </c>
@@ -6118,7 +6124,7 @@
         <v>54.582120000000003</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>44713</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>32.575091999999998</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>44743</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>18.761372999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>44774</v>
       </c>
@@ -6142,7 +6148,7 @@
         <v>-19.786481999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>44805</v>
       </c>
@@ -6150,1798 +6156,1798 @@
         <v>-14.834344</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B723" s="2"/>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B770" s="2"/>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B904" s="2"/>
     </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B905" s="2"/>
     </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B944" s="2"/>
     </row>
-    <row r="945" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B945" s="2"/>
     </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B948" s="2"/>
     </row>
-    <row r="949" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B949" s="2"/>
     </row>
-    <row r="950" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1001" s="2"/>
     </row>
-    <row r="1002" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1002" s="2"/>
     </row>
-    <row r="1003" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1003" s="2"/>
     </row>
-    <row r="1004" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1004" s="2"/>
     </row>
-    <row r="1005" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1005" s="2"/>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1006" s="2"/>
     </row>
-    <row r="1007" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1007" s="2"/>
     </row>
-    <row r="1008" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1008" s="2"/>
     </row>
-    <row r="1009" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1009" s="2"/>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1010" s="2"/>
     </row>
-    <row r="1011" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1011" s="2"/>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1012" s="2"/>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1013" s="2"/>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1014" s="2"/>
     </row>
-    <row r="1015" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1015" s="2"/>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1016" s="2"/>
     </row>
-    <row r="1017" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1017" s="2"/>
     </row>
-    <row r="1018" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1018" s="2"/>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1019" s="2"/>
     </row>
-    <row r="1020" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1020" s="2"/>
     </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1021" s="2"/>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1022" s="2"/>
     </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1023" s="2"/>
     </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1024" s="2"/>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1025" s="2"/>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1026" s="2"/>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1027" s="2"/>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1028" s="2"/>
     </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1029" s="2"/>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1030" s="2"/>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1031" s="2"/>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1032" s="2"/>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1033" s="2"/>
     </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1034" s="2"/>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1035" s="2"/>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1036" s="2"/>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1037" s="2"/>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1038" s="2"/>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1039" s="2"/>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1040" s="2"/>
     </row>
-    <row r="1041" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1041" s="2"/>
     </row>
-    <row r="1042" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1042" s="2"/>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1043" s="2"/>
     </row>
-    <row r="1044" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1044" s="2"/>
     </row>
-    <row r="1045" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1045" s="2"/>
     </row>
-    <row r="1046" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1046" s="2"/>
     </row>
-    <row r="1047" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1047" s="2"/>
     </row>
-    <row r="1048" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048" s="2"/>
     </row>
-    <row r="1049" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1049" s="2"/>
     </row>
-    <row r="1050" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1050" s="2"/>
     </row>
-    <row r="1051" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1051" s="2"/>
     </row>
-    <row r="1052" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1052" s="2"/>
     </row>
-    <row r="1053" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1053" s="2"/>
     </row>
-    <row r="1054" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1054" s="2"/>
     </row>
-    <row r="1055" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1055" s="2"/>
     </row>
-    <row r="1056" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1056" s="2"/>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1057" s="2"/>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1058" s="2"/>
     </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1059" s="2"/>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1060" s="2"/>
     </row>
-    <row r="1061" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1061" s="2"/>
     </row>
-    <row r="1062" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1062" s="2"/>
     </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1063" s="2"/>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1064" s="2"/>
     </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1065" s="2"/>
     </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1066" s="2"/>
     </row>
-    <row r="1067" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1067" s="2"/>
     </row>
-    <row r="1068" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1068" s="2"/>
     </row>
-    <row r="1069" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1069" s="2"/>
     </row>
-    <row r="1070" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1070" s="2"/>
     </row>
-    <row r="1071" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1071" s="2"/>
     </row>
-    <row r="1072" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1072" s="2"/>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1073" s="2"/>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1074" s="2"/>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1075" s="2"/>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1076" s="2"/>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1077" s="2"/>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1078" s="2"/>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1079" s="2"/>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1080" s="2"/>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1081" s="2"/>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1082" s="2"/>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1083" s="2"/>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1084" s="2"/>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1085" s="2"/>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1086" s="2"/>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1087" s="2"/>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1088" s="2"/>
     </row>
-    <row r="1089" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1089" s="2"/>
     </row>
-    <row r="1090" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1090" s="2"/>
     </row>
-    <row r="1091" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1091" s="2"/>
     </row>
-    <row r="1092" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1092" s="2"/>
     </row>
-    <row r="1093" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1093" s="2"/>
     </row>
-    <row r="1094" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1094" s="2"/>
     </row>
-    <row r="1095" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1095" s="2"/>
     </row>
-    <row r="1096" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1096" s="2"/>
     </row>
-    <row r="1097" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1097" s="2"/>
     </row>
-    <row r="1098" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1098" s="2"/>
     </row>
-    <row r="1099" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1099" s="2"/>
     </row>
-    <row r="1100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1100" s="2"/>
     </row>
-    <row r="1101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1101" s="2"/>
     </row>
-    <row r="1102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1102" s="2"/>
     </row>
-    <row r="1103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1103" s="2"/>
     </row>
-    <row r="1104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1104" s="2"/>
     </row>
-    <row r="1105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1105" s="2"/>
     </row>
-    <row r="1106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1106" s="2"/>
     </row>
-    <row r="1107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1107" s="2"/>
     </row>
-    <row r="1108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1108" s="2"/>
     </row>
-    <row r="1109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1109" s="2"/>
     </row>
-    <row r="1110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1110" s="2"/>
     </row>
-    <row r="1111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1111" s="2"/>
     </row>
-    <row r="1112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1112" s="2"/>
     </row>
-    <row r="1113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1113" s="2"/>
     </row>
-    <row r="1114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1114" s="2"/>
     </row>
-    <row r="1115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1115" s="2"/>
     </row>
-    <row r="1116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1116" s="2"/>
     </row>
-    <row r="1117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1117" s="2"/>
     </row>
-    <row r="1118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1118" s="2"/>
     </row>
-    <row r="1119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1119" s="2"/>
     </row>
-    <row r="1120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1120" s="2"/>
     </row>
-    <row r="1121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1121" s="2"/>
     </row>
-    <row r="1122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1122" s="2"/>
     </row>
-    <row r="1123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1123" s="2"/>
     </row>
-    <row r="1124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1124" s="2"/>
     </row>
-    <row r="1125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1125" s="2"/>
     </row>
-    <row r="1126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1126" s="2"/>
     </row>
-    <row r="1127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1127" s="2"/>
     </row>
-    <row r="1128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1128" s="2"/>
     </row>
-    <row r="1129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1129" s="2"/>
     </row>
-    <row r="1130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1130" s="2"/>
     </row>
-    <row r="1131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1131" s="2"/>
     </row>
-    <row r="1132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1132" s="2"/>
     </row>
-    <row r="1133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1133" s="2"/>
     </row>
-    <row r="1134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1134" s="2"/>
     </row>
-    <row r="1135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1135" s="2"/>
     </row>
-    <row r="1136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1136" s="2"/>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1137" s="2"/>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1138" s="2"/>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1139" s="2"/>
     </row>
-    <row r="1140" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1140" s="2"/>
     </row>
-    <row r="1141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1141" s="2"/>
     </row>
-    <row r="1142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1142" s="2"/>
     </row>
-    <row r="1143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1143" s="2"/>
     </row>
-    <row r="1144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1144" s="2"/>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1145" s="2"/>
     </row>
-    <row r="1146" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1146" s="2"/>
     </row>
-    <row r="1147" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1147" s="2"/>
     </row>
-    <row r="1148" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1148" s="2"/>
     </row>
-    <row r="1149" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1149" s="2"/>
     </row>
-    <row r="1150" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1150" s="2"/>
     </row>
-    <row r="1151" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1151" s="2"/>
     </row>
-    <row r="1152" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1152" s="2"/>
     </row>
-    <row r="1153" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1153" s="2"/>
     </row>
-    <row r="1154" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1154" s="2"/>
     </row>
-    <row r="1155" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1155" s="2"/>
     </row>
-    <row r="1156" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1156" s="2"/>
     </row>
-    <row r="1157" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1157" s="2"/>
     </row>
-    <row r="1158" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1158" s="2"/>
     </row>
-    <row r="1159" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1159" s="2"/>
     </row>
-    <row r="1160" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1160" s="2"/>
     </row>
-    <row r="1161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1161" s="2"/>
     </row>
-    <row r="1162" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1162" s="2"/>
     </row>
-    <row r="1163" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1163" s="2"/>
     </row>
-    <row r="1164" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1164" s="2"/>
     </row>
-    <row r="1165" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1165" s="2"/>
     </row>
-    <row r="1166" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1166" s="2"/>
     </row>
-    <row r="1167" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1167" s="2"/>
     </row>
-    <row r="1168" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1168" s="2"/>
     </row>
-    <row r="1169" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1169" s="2"/>
     </row>
-    <row r="1170" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1170" s="2"/>
     </row>
-    <row r="1171" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1171" s="2"/>
     </row>
-    <row r="1172" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1172" s="2"/>
     </row>
-    <row r="1173" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1173" s="2"/>
     </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1174" s="2"/>
     </row>
-    <row r="1175" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1175" s="2"/>
     </row>
-    <row r="1176" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1176" s="2"/>
     </row>
-    <row r="1177" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1177" s="2"/>
     </row>
-    <row r="1178" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1178" s="2"/>
     </row>
-    <row r="1179" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1179" s="2"/>
     </row>
-    <row r="1180" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1180" s="2"/>
     </row>
-    <row r="1181" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1181" s="2"/>
     </row>
-    <row r="1182" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1182" s="2"/>
     </row>
-    <row r="1183" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1183" s="2"/>
     </row>
-    <row r="1184" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1184" s="2"/>
     </row>
-    <row r="1185" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1185" s="2"/>
     </row>
-    <row r="1186" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1186" s="2"/>
     </row>
-    <row r="1187" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1187" s="2"/>
     </row>
-    <row r="1188" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1188" s="2"/>
     </row>
-    <row r="1189" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1189" s="2"/>
     </row>
-    <row r="1190" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1190" s="2"/>
     </row>
-    <row r="1191" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1191" s="2"/>
     </row>
-    <row r="1192" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1192" s="2"/>
     </row>
-    <row r="1193" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1193" s="2"/>
     </row>
-    <row r="1194" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1194" s="2"/>
     </row>
-    <row r="1195" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1195" s="2"/>
     </row>
-    <row r="1196" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1196" s="2"/>
     </row>
-    <row r="1197" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1197" s="2"/>
     </row>
-    <row r="1198" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1198" s="2"/>
     </row>
-    <row r="1199" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1199" s="2"/>
     </row>
-    <row r="1200" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1200" s="2"/>
     </row>
-    <row r="1201" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1201" s="2"/>
     </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1202" s="2"/>
     </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1203" s="2"/>
     </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1204" s="2"/>
     </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1205" s="2"/>
     </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1206" s="2"/>
     </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1207" s="2"/>
     </row>
-    <row r="1208" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1208" s="2"/>
     </row>
-    <row r="1209" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1209" s="2"/>
     </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1210" s="2"/>
     </row>
-    <row r="1211" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1211" s="2"/>
     </row>
-    <row r="1212" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1212" s="2"/>
     </row>
-    <row r="1213" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1213" s="2"/>
     </row>
-    <row r="1214" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1214" s="2"/>
     </row>
-    <row r="1215" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1215" s="2"/>
     </row>
-    <row r="1216" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1216" s="2"/>
     </row>
-    <row r="1217" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1217" s="2"/>
     </row>
-    <row r="1218" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1218" s="2"/>
     </row>
-    <row r="1219" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1219" s="2"/>
     </row>
-    <row r="1220" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1220" s="2"/>
     </row>
-    <row r="1221" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1221" s="2"/>
     </row>
-    <row r="1222" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1222" s="2"/>
     </row>
-    <row r="1223" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1223" s="2"/>
     </row>
-    <row r="1224" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1224" s="2"/>
     </row>
-    <row r="1225" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1225" s="2"/>
     </row>
-    <row r="1226" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1226" s="2"/>
     </row>
-    <row r="1227" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1227" s="2"/>
     </row>
-    <row r="1228" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1228" s="2"/>
     </row>
-    <row r="1229" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1229" s="2"/>
     </row>
-    <row r="1230" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1230" s="2"/>
     </row>
-    <row r="1231" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1231" s="2"/>
     </row>
-    <row r="1232" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1232" s="2"/>
     </row>
-    <row r="1233" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1233" s="2"/>
     </row>
-    <row r="1234" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1234" s="2"/>
     </row>
-    <row r="1235" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1235" s="2"/>
     </row>
-    <row r="1236" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1236" s="2"/>
     </row>
-    <row r="1237" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1237" s="2"/>
     </row>
-    <row r="1238" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1238" s="2"/>
     </row>
-    <row r="1239" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1239" s="2"/>
     </row>
-    <row r="1240" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1240" s="2"/>
     </row>
-    <row r="1241" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1241" s="2"/>
     </row>
-    <row r="1242" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1242" s="2"/>
     </row>
-    <row r="1243" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1243" s="2"/>
     </row>
-    <row r="1244" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1244" s="2"/>
     </row>
-    <row r="1245" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1245" s="2"/>
     </row>
-    <row r="1246" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1246" s="2"/>
     </row>
-    <row r="1247" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1247" s="2"/>
     </row>
-    <row r="1248" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1248" s="2"/>
     </row>
-    <row r="1249" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1249" s="2"/>
     </row>
-    <row r="1250" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1250" s="2"/>
     </row>
-    <row r="1251" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1251" s="2"/>
     </row>
-    <row r="1252" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1252" s="2"/>
     </row>
-    <row r="1253" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1253" s="2"/>
     </row>
-    <row r="1254" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1254" s="2"/>
     </row>
-    <row r="1255" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1255" s="2"/>
     </row>
-    <row r="1256" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1256" s="2"/>
     </row>
   </sheetData>
@@ -7954,6 +7960,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -8067,15 +8082,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8083,13 +8089,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37EE5DD5-781D-4DA5-927A-4157B64F4934}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0BBF0-92E9-4F0D-A0BE-BF7CDA07C0D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0BBF0-92E9-4F0D-A0BE-BF7CDA07C0D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37EE5DD5-781D-4DA5-927A-4157B64F4934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC1ACB5-FBA1-4475-8A2B-625475B21DD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBC1ACB5-FBA1-4475-8A2B-625475B21DD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>